--- a/0_Data/9_Supplementary Information/Toilet.Codes.All.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t xml:space="preserve">Country_long</t>
   </si>
@@ -368,6 +368,18 @@
     <t xml:space="preserve">Letrina</t>
   </si>
   <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes and connected to sewage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes and not connected to sewage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
@@ -597,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">Flushed toilet NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
@@ -2764,7 +2779,9 @@
       <c r="C101" t="s">
         <v>119</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2776,7 +2793,9 @@
       <c r="C102" t="s">
         <v>120</v>
       </c>
-      <c r="D102"/>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2788,98 +2807,100 @@
       <c r="C103" t="s">
         <v>121</v>
       </c>
-      <c r="D103"/>
+      <c r="D103" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>130</v>
@@ -2888,10 +2909,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>131</v>
@@ -2900,10 +2921,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
         <v>132</v>
@@ -2912,118 +2933,118 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
         <v>143</v>
@@ -3032,70 +3053,70 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
         <v>144</v>
-      </c>
-      <c r="C124" t="s">
-        <v>145</v>
       </c>
       <c r="D124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
         <v>153</v>
@@ -3104,272 +3125,272 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
-      </c>
-      <c r="D134" t="s">
-        <v>52</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
-      </c>
-      <c r="D135" t="s">
-        <v>52</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
-      </c>
-      <c r="D136" t="s">
-        <v>52</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
-      </c>
-      <c r="D139"/>
+        <v>164</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
-      </c>
-      <c r="D140"/>
+        <v>165</v>
+      </c>
+      <c r="D140" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
-      </c>
-      <c r="D141"/>
+        <v>94</v>
+      </c>
+      <c r="D141" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
         <v>176</v>
@@ -3378,10 +3399,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
         <v>177</v>
@@ -3390,10 +3411,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
         <v>178</v>
@@ -3402,34 +3423,34 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>182</v>
@@ -3438,10 +3459,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
         <v>183</v>
@@ -3450,10 +3471,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
         <v>184</v>
@@ -3462,127 +3483,127 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
         <v>45</v>
@@ -3594,7 +3615,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B170" t="s">
         <v>47</v>
@@ -3606,10 +3627,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B171" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
         <v>198</v>
@@ -3618,442 +3639,448 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
-      </c>
-      <c r="D172"/>
+        <v>119</v>
+      </c>
+      <c r="D172" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
-      </c>
-      <c r="D173"/>
+        <v>120</v>
+      </c>
+      <c r="D173" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
-      </c>
-      <c r="D174"/>
+        <v>121</v>
+      </c>
+      <c r="D174" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C176" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C182" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="C183" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
         <v>215</v>
       </c>
-      <c r="B185" t="s">
-        <v>17</v>
-      </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="D187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="D188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
         <v>222</v>
-      </c>
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" t="s">
-        <v>196</v>
       </c>
       <c r="D189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C194" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="D194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C201" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="D201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" t="s">
         <v>232</v>
-      </c>
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>233</v>
       </c>
       <c r="D202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C204" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="D204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D205"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="D206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C207" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>238</v>
@@ -4062,166 +4089,166 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="D209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="D213"/>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D214"/>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="D215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="D216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D218"/>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="D219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C220" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D220"/>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B222" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
         <v>247</v>
@@ -4230,646 +4257,646 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B223" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B224" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="C224" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="D224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B225" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="C225" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="D225"/>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="C226" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B227" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D228"/>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D230"/>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>249</v>
+      </c>
+      <c r="B231" t="s">
+        <v>257</v>
+      </c>
+      <c r="C231" t="s">
         <v>258</v>
-      </c>
-      <c r="B231" t="s">
-        <v>17</v>
-      </c>
-      <c r="C231" t="s">
-        <v>262</v>
       </c>
       <c r="D231"/>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="C232" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="C233" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D234"/>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D236"/>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D237"/>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" t="s">
         <v>268</v>
-      </c>
-      <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" t="s">
-        <v>270</v>
       </c>
       <c r="D238"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C240" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D240"/>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C241" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="D241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D242"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D243"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="D244"/>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="D245"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D246"/>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="D248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
-      </c>
-      <c r="D249" t="s">
-        <v>59</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C250" t="s">
-        <v>278</v>
-      </c>
-      <c r="D250" t="s">
-        <v>52</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>279</v>
-      </c>
-      <c r="D251" t="s">
-        <v>52</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D251"/>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C252" t="s">
-        <v>280</v>
-      </c>
-      <c r="D252" t="s">
-        <v>52</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C253" t="s">
-        <v>281</v>
-      </c>
-      <c r="D253" t="s">
-        <v>59</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B254" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C254" t="s">
-        <v>94</v>
-      </c>
-      <c r="D254" t="s">
-        <v>70</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D254"/>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>282</v>
       </c>
-      <c r="D255"/>
+      <c r="D255" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B256" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>283</v>
       </c>
-      <c r="D256"/>
+      <c r="D256" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>281</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
         <v>284</v>
       </c>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-      <c r="C257" t="s">
-        <v>102</v>
-      </c>
-      <c r="D257"/>
+      <c r="D257" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C258" t="s">
-        <v>103</v>
-      </c>
-      <c r="D258"/>
+        <v>285</v>
+      </c>
+      <c r="D258" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>104</v>
-      </c>
-      <c r="D259"/>
+        <v>286</v>
+      </c>
+      <c r="D259" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>105</v>
-      </c>
-      <c r="D260"/>
+        <v>94</v>
+      </c>
+      <c r="D260" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="D261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B262" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="D262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B265" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C266" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C269" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="D269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="D270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C271" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="D271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C272" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B273" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C273" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="D273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="D274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B275" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
         <v>291</v>
@@ -4878,10 +4905,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B276" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
         <v>292</v>
@@ -4890,10 +4917,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B277" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
         <v>293</v>
@@ -4902,482 +4929,482 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C278" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="D278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D280"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C281" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C282" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" t="s">
+        <v>41</v>
+      </c>
+      <c r="C283" t="s">
         <v>298</v>
-      </c>
-      <c r="B283" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" t="s">
-        <v>300</v>
       </c>
       <c r="D283"/>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C284" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D284"/>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C285" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D285"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B286" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C286" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D286"/>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="C287" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D287"/>
     </row>
     <row r="288">
       <c r="A288" t="s">
+        <v>303</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
         <v>304</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" t="s">
-        <v>306</v>
       </c>
       <c r="D288"/>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D289"/>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D290"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B291" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C291" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C292" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D292"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D294"/>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B295" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D295"/>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C296" t="s">
-        <v>315</v>
-      </c>
-      <c r="D296" t="s">
-        <v>52</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D296"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
+        <v>309</v>
+      </c>
+      <c r="B297" t="s">
+        <v>19</v>
+      </c>
+      <c r="C297" t="s">
         <v>314</v>
       </c>
-      <c r="B297" t="s">
-        <v>7</v>
-      </c>
-      <c r="C297" t="s">
-        <v>316</v>
-      </c>
-      <c r="D297" t="s">
-        <v>52</v>
-      </c>
+      <c r="D297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>317</v>
-      </c>
-      <c r="D298" t="s">
-        <v>52</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D298"/>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C299" t="s">
-        <v>318</v>
-      </c>
-      <c r="D299" t="s">
-        <v>52</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D299"/>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C300" t="s">
-        <v>319</v>
-      </c>
-      <c r="D300" t="s">
-        <v>52</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D300"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B301" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>320</v>
-      </c>
-      <c r="D301" t="s">
-        <v>59</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D301"/>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D302" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B303" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D303" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>78</v>
-      </c>
-      <c r="D304"/>
+        <v>322</v>
+      </c>
+      <c r="D304" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>319</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" t="s">
         <v>323</v>
       </c>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>324</v>
-      </c>
-      <c r="D305"/>
+      <c r="D305" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C306" t="s">
-        <v>325</v>
-      </c>
-      <c r="D306"/>
+        <v>324</v>
+      </c>
+      <c r="D306" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>326</v>
-      </c>
-      <c r="D307"/>
+        <v>325</v>
+      </c>
+      <c r="D307" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C308" t="s">
-        <v>327</v>
-      </c>
-      <c r="D308"/>
+        <v>326</v>
+      </c>
+      <c r="D308" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C309" t="s">
-        <v>328</v>
-      </c>
-      <c r="D309"/>
+        <v>327</v>
+      </c>
+      <c r="D309" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B310" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C310" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="D310"/>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D311"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="D312"/>
     </row>
     <row r="313">
       <c r="A313" t="s">
+        <v>328</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
         <v>331</v>
-      </c>
-      <c r="B313" t="s">
-        <v>7</v>
-      </c>
-      <c r="C313" t="s">
-        <v>332</v>
       </c>
       <c r="D313"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C314" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C315" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="D315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C316" t="s">
         <v>334</v>
@@ -5386,274 +5413,274 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>328</v>
+      </c>
+      <c r="B317" t="s">
+        <v>37</v>
+      </c>
+      <c r="C317" t="s">
         <v>335</v>
-      </c>
-      <c r="B317" t="s">
-        <v>5</v>
-      </c>
-      <c r="C317" t="s">
-        <v>31</v>
       </c>
       <c r="D317"/>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D318"/>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="D319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="D320"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B321" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C321" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D321"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B322" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="D322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B323" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D323"/>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B324" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D324"/>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B325" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B326" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B327" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C327" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B328" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C329" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="D329"/>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C330" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="D330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C331" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C332" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C333" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B334" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C334" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="D334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B335" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B336" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D336"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B337" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D337"/>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="D338"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C339" t="s">
         <v>346</v>
@@ -5662,22 +5689,22 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="s">
+        <v>21</v>
+      </c>
+      <c r="C340" t="s">
         <v>347</v>
-      </c>
-      <c r="B340" t="s">
-        <v>5</v>
-      </c>
-      <c r="C340" t="s">
-        <v>25</v>
       </c>
       <c r="D340"/>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C341" t="s">
         <v>348</v>
@@ -5686,10 +5713,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C342" t="s">
         <v>349</v>
@@ -5698,10 +5725,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C343" t="s">
         <v>350</v>
@@ -5710,25 +5737,25 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C344" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="D344"/>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B345" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="D345"/>
     </row>
@@ -5737,10 +5764,10 @@
         <v>352</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="D346"/>
     </row>
@@ -5749,10 +5776,10 @@
         <v>352</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D347"/>
     </row>
@@ -5761,10 +5788,10 @@
         <v>352</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D348"/>
     </row>
@@ -5773,10 +5800,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C349" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D349"/>
     </row>
@@ -5785,398 +5812,470 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C350" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D350"/>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="D351"/>
     </row>
     <row r="352">
       <c r="A352" t="s">
+        <v>357</v>
+      </c>
+      <c r="B352" t="s">
+        <v>93</v>
+      </c>
+      <c r="C352" t="s">
         <v>358</v>
-      </c>
-      <c r="B352" t="s">
-        <v>7</v>
-      </c>
-      <c r="C352" t="s">
-        <v>32</v>
       </c>
       <c r="D352"/>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="D353"/>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C354" t="s">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="D354"/>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>35</v>
+        <v>361</v>
       </c>
       <c r="D355"/>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C356" t="s">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="D356"/>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B357" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D357"/>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B358" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C358" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B359" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D359"/>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C360" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D360"/>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C361" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D361"/>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C362" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D362"/>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C363" t="s">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="D363"/>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C364" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="D364"/>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C365" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="D365"/>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C366" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="D366"/>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C367" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="D367"/>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B368" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C368" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="D368"/>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B369" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C369" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D369"/>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D370"/>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B371" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D371"/>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B372" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D372"/>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B373" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="C373" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D373"/>
     </row>
     <row r="374">
       <c r="A374" t="s">
+        <v>367</v>
+      </c>
+      <c r="B374" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374" t="s">
         <v>371</v>
       </c>
-      <c r="B374" t="s">
-        <v>45</v>
-      </c>
-      <c r="C374" t="s">
-        <v>372</v>
-      </c>
-      <c r="D374" t="s">
-        <v>52</v>
-      </c>
+      <c r="D374"/>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B375" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C375" t="s">
-        <v>373</v>
-      </c>
-      <c r="D375" t="s">
-        <v>52</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D375"/>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B376" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C376" t="s">
-        <v>374</v>
-      </c>
-      <c r="D376" t="s">
-        <v>59</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D376"/>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B377" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C377" t="s">
-        <v>375</v>
-      </c>
-      <c r="D377" t="s">
-        <v>52</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D377"/>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B378" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C378" t="s">
-        <v>376</v>
-      </c>
-      <c r="D378" t="s">
-        <v>52</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D378"/>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B379" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C379" t="s">
-        <v>377</v>
-      </c>
-      <c r="D379" t="s">
-        <v>52</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D379"/>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B380" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="C380" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D380" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B381" t="s">
+        <v>47</v>
+      </c>
+      <c r="C381" t="s">
+        <v>378</v>
+      </c>
+      <c r="D381" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>376</v>
+      </c>
+      <c r="B382" t="s">
+        <v>146</v>
+      </c>
+      <c r="C382" t="s">
         <v>379</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D382" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>376</v>
+      </c>
+      <c r="B383" t="s">
+        <v>148</v>
+      </c>
+      <c r="C383" t="s">
         <v>380</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D383" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>376</v>
+      </c>
+      <c r="B384" t="s">
+        <v>206</v>
+      </c>
+      <c r="C384" t="s">
+        <v>381</v>
+      </c>
+      <c r="D384" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>376</v>
+      </c>
+      <c r="B385" t="s">
+        <v>208</v>
+      </c>
+      <c r="C385" t="s">
+        <v>382</v>
+      </c>
+      <c r="D385" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>376</v>
+      </c>
+      <c r="B386" t="s">
+        <v>209</v>
+      </c>
+      <c r="C386" t="s">
+        <v>383</v>
+      </c>
+      <c r="D386" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>376</v>
+      </c>
+      <c r="B387" t="s">
+        <v>384</v>
+      </c>
+      <c r="C387" t="s">
+        <v>385</v>
+      </c>
+      <c r="D387" t="s">
         <v>70</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/Toilet.Codes.All.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t xml:space="preserve">Country_long</t>
   </si>
@@ -938,6 +938,9 @@
     <t xml:space="preserve">dry raised laterine</t>
   </si>
   <si>
+    <t xml:space="preserve">dry pit latrine</t>
+  </si>
+  <si>
     <t xml:space="preserve">no toilet in the household</t>
   </si>
   <si>
@@ -1170,6 +1173,30 @@
   </si>
   <si>
     <t xml:space="preserve">Compartido con otro hogarOtro (superficie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Septic tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suilabh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved toilet with vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double septic tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel/pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
   </si>
 </sst>
 </file>
@@ -5057,7 +5084,9 @@
       <c r="C288" t="s">
         <v>304</v>
       </c>
-      <c r="D288"/>
+      <c r="D288" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -5069,7 +5098,9 @@
       <c r="C289" t="s">
         <v>305</v>
       </c>
-      <c r="D289"/>
+      <c r="D289" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -5081,7 +5112,9 @@
       <c r="C290" t="s">
         <v>306</v>
       </c>
-      <c r="D290"/>
+      <c r="D290" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -5093,7 +5126,9 @@
       <c r="C291" t="s">
         <v>307</v>
       </c>
-      <c r="D291"/>
+      <c r="D291" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -5105,26 +5140,30 @@
       <c r="C292" t="s">
         <v>308</v>
       </c>
-      <c r="D292"/>
+      <c r="D292" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>303</v>
+      </c>
+      <c r="B293" t="s">
+        <v>21</v>
+      </c>
+      <c r="C293" t="s">
         <v>309</v>
       </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
-        <v>310</v>
-      </c>
-      <c r="D293"/>
+      <c r="D293" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
         <v>311</v>
@@ -5133,10 +5172,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
         <v>312</v>
@@ -5145,10 +5184,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
         <v>313</v>
@@ -5157,10 +5196,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B297" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
         <v>314</v>
@@ -5169,10 +5208,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B298" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C298" t="s">
         <v>315</v>
@@ -5181,10 +5220,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
         <v>316</v>
@@ -5193,10 +5232,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C300" t="s">
         <v>317</v>
@@ -5205,10 +5244,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C301" t="s">
         <v>318</v>
@@ -5217,24 +5256,22 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302" t="s">
+        <v>41</v>
+      </c>
+      <c r="C302" t="s">
         <v>319</v>
       </c>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" t="s">
-        <v>320</v>
-      </c>
-      <c r="D302" t="s">
-        <v>52</v>
-      </c>
+      <c r="D302"/>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B303" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
         <v>321</v>
@@ -5245,10 +5282,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
         <v>322</v>
@@ -5259,10 +5296,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
         <v>323</v>
@@ -5273,10 +5310,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B306" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
         <v>324</v>
@@ -5287,24 +5324,24 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B307" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C307" t="s">
         <v>325</v>
       </c>
       <c r="D307" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B308" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C308" t="s">
         <v>326</v>
@@ -5315,48 +5352,50 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C309" t="s">
         <v>327</v>
       </c>
       <c r="D309" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
+        <v>320</v>
+      </c>
+      <c r="B310" t="s">
+        <v>41</v>
+      </c>
+      <c r="C310" t="s">
         <v>328</v>
       </c>
-      <c r="B310" t="s">
-        <v>93</v>
-      </c>
-      <c r="C310" t="s">
-        <v>78</v>
-      </c>
-      <c r="D310"/>
+      <c r="D310" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C311" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="D311"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C312" t="s">
         <v>330</v>
@@ -5365,10 +5404,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
         <v>331</v>
@@ -5377,10 +5416,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
         <v>332</v>
@@ -5389,10 +5428,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B315" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C315" t="s">
         <v>333</v>
@@ -5401,10 +5440,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B316" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C316" t="s">
         <v>334</v>
@@ -5413,10 +5452,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B317" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C317" t="s">
         <v>335</v>
@@ -5425,34 +5464,34 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>329</v>
+      </c>
+      <c r="B318" t="s">
+        <v>37</v>
+      </c>
+      <c r="C318" t="s">
         <v>336</v>
-      </c>
-      <c r="B318" t="s">
-        <v>5</v>
-      </c>
-      <c r="C318" t="s">
-        <v>221</v>
       </c>
       <c r="D318"/>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="D319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C320" t="s">
         <v>338</v>
@@ -5461,169 +5500,169 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="D321"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="D322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>337</v>
+      </c>
+      <c r="B323" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323" t="s">
         <v>340</v>
-      </c>
-      <c r="B323" t="s">
-        <v>5</v>
-      </c>
-      <c r="C323" t="s">
-        <v>31</v>
       </c>
       <c r="D323"/>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D324"/>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B327" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B328" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C328" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B329" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D329"/>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C330" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C331" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B332" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C332" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B333" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C333" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B334" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C334" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D334"/>
     </row>
@@ -5632,19 +5671,19 @@
         <v>341</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C335" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="D335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C336" t="s">
         <v>343</v>
@@ -5653,10 +5692,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C337" t="s">
         <v>344</v>
@@ -5665,10 +5704,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
         <v>345</v>
@@ -5677,10 +5716,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
         <v>346</v>
@@ -5689,10 +5728,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C340" t="s">
         <v>347</v>
@@ -5701,10 +5740,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
         <v>348</v>
@@ -5713,10 +5752,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C342" t="s">
         <v>349</v>
@@ -5725,10 +5764,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C343" t="s">
         <v>350</v>
@@ -5737,58 +5776,58 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C344" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="D344"/>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C345" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="D345"/>
     </row>
     <row r="346">
       <c r="A346" t="s">
+        <v>342</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
         <v>352</v>
-      </c>
-      <c r="B346" t="s">
-        <v>5</v>
-      </c>
-      <c r="C346" t="s">
-        <v>25</v>
       </c>
       <c r="D346"/>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="D347"/>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -5797,10 +5836,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C349" t="s">
         <v>355</v>
@@ -5809,10 +5848,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C350" t="s">
         <v>356</v>
@@ -5821,34 +5860,34 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C351" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="D351"/>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="D352"/>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C353" t="s">
         <v>359</v>
@@ -5857,10 +5896,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C354" t="s">
         <v>360</v>
@@ -5869,10 +5908,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C355" t="s">
         <v>361</v>
@@ -5881,10 +5920,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C356" t="s">
         <v>362</v>
@@ -5893,145 +5932,145 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s">
+        <v>17</v>
+      </c>
+      <c r="C357" t="s">
         <v>363</v>
-      </c>
-      <c r="B357" t="s">
-        <v>5</v>
-      </c>
-      <c r="C357" t="s">
-        <v>31</v>
       </c>
       <c r="D357"/>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C359" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D359"/>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B360" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D360"/>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C361" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D361"/>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C362" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D362"/>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C363" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D363"/>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C364" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D364"/>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C365" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D365"/>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C366" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D366"/>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C367" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D367"/>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B368" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C368" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D368"/>
     </row>
@@ -6040,19 +6079,19 @@
         <v>364</v>
       </c>
       <c r="B369" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C369" t="s">
-        <v>365</v>
+        <v>48</v>
       </c>
       <c r="D369"/>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B370" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C370" t="s">
         <v>366</v>
@@ -6061,22 +6100,22 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D371"/>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C372" t="s">
         <v>369</v>
@@ -6085,10 +6124,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C373" t="s">
         <v>370</v>
@@ -6097,10 +6136,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
         <v>371</v>
@@ -6109,10 +6148,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B375" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C375" t="s">
         <v>372</v>
@@ -6121,10 +6160,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B376" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C376" t="s">
         <v>373</v>
@@ -6133,10 +6172,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B377" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C377" t="s">
         <v>374</v>
@@ -6145,10 +6184,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C378" t="s">
         <v>375</v>
@@ -6157,36 +6196,34 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B379" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="C379" t="s">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="D379"/>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B380" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="C380" t="s">
-        <v>377</v>
-      </c>
-      <c r="D380" t="s">
-        <v>52</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D380"/>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B381" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C381" t="s">
         <v>378</v>
@@ -6197,38 +6234,38 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B382" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C382" t="s">
         <v>379</v>
       </c>
       <c r="D382" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B383" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C383" t="s">
         <v>380</v>
       </c>
       <c r="D383" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B384" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="C384" t="s">
         <v>381</v>
@@ -6239,10 +6276,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B385" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C385" t="s">
         <v>382</v>
@@ -6253,29 +6290,155 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B386" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C386" t="s">
         <v>383</v>
       </c>
       <c r="D386" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B387" t="s">
+        <v>209</v>
+      </c>
+      <c r="C387" t="s">
         <v>384</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>377</v>
+      </c>
+      <c r="B388" t="s">
         <v>385</v>
       </c>
-      <c r="D387" t="s">
+      <c r="C388" t="s">
+        <v>386</v>
+      </c>
+      <c r="D388" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>388</v>
+      </c>
+      <c r="D389" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>387</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>389</v>
+      </c>
+      <c r="D390" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>387</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>390</v>
+      </c>
+      <c r="D391" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>387</v>
+      </c>
+      <c r="B392" t="s">
+        <v>17</v>
+      </c>
+      <c r="C392" t="s">
+        <v>391</v>
+      </c>
+      <c r="D392" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>387</v>
+      </c>
+      <c r="B393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" t="s">
+        <v>392</v>
+      </c>
+      <c r="D393" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>387</v>
+      </c>
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394" t="s">
+        <v>393</v>
+      </c>
+      <c r="D394" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>387</v>
+      </c>
+      <c r="B395" t="s">
+        <v>37</v>
+      </c>
+      <c r="C395" t="s">
+        <v>394</v>
+      </c>
+      <c r="D395" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>387</v>
+      </c>
+      <c r="B396" t="s">
+        <v>39</v>
+      </c>
+      <c r="C396" t="s">
+        <v>78</v>
+      </c>
+      <c r="D396" t="s">
         <v>70</v>
       </c>
     </row>
